--- a/Assets/Shared/ExcelImporter/Excels/EnemyDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/EnemyDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF304D7A-81D6-48F8-9E71-64FF2C7D96E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5CB762-0C0F-4CDA-88F7-0D0C0CA803D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyDatas" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Assets/Shared/ExcelImporter/Excels/EnemyDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/EnemyDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5CB762-0C0F-4CDA-88F7-0D0C0CA803D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D960344-1F7A-42BD-BEC8-4BA6EBB56F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="2580" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyDatas" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="10">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F3" s="10">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F4" s="10">
         <v>5</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="10">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F5" s="10">
         <v>10</v>
@@ -677,7 +677,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="10">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="F6" s="10">
         <v>10</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="10">
-        <v>450</v>
+        <v>20</v>
       </c>
       <c r="F7" s="10">
         <v>25</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="10">
-        <v>450</v>
+        <v>20</v>
       </c>
       <c r="F8" s="10">
         <v>10</v>
